--- a/Avada_issue_log.xlsx
+++ b/Avada_issue_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\analytics_accelerator\E_list_prjt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDB9F04-637E-4778-88DC-0FF6ECD1D0EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55092116-7C75-47B7-AE85-E8F2D74B268D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C0EBD69-CA78-4771-89C2-68E13A4E7F18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3C0EBD69-CA78-4771-89C2-68E13A4E7F18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="79">
   <si>
     <t>Issue ID</t>
   </si>
@@ -117,9 +117,6 @@
     <t>REGION</t>
   </si>
   <si>
-    <t xml:space="preserve">Some dates with time stamp &amp; in text format (different from the rest of the column) </t>
-  </si>
-  <si>
     <t>2 missing values</t>
   </si>
   <si>
@@ -156,20 +153,134 @@
     <t>Missing rows considered as items not refunded</t>
   </si>
   <si>
-    <t>Used "Date" function &amp; "Text to Columns" function</t>
-  </si>
-  <si>
-    <t>Removed the duplicate &amp; kept the one with REGION as "NORTH AMERICA"</t>
-  </si>
-  <si>
-    <t>Two version of 27in 4K gaming monitor (27in 4K gaming monitor Vs 27" 4K gaming monitor)</t>
+    <t>1 value with "/N"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27 dates with time stamp &amp; in text format (different from the rest of the column) </t>
+  </si>
+  <si>
+    <t>Replaced as missing value - resulting in a total of 3 missing values for PURCHASE_TS</t>
+  </si>
+  <si>
+    <t>Two version of 27in 4K gaming monitor (27in 4K gaming monitor Vs 27in"" 4K gaming monitor)</t>
+  </si>
+  <si>
+    <t>Removed the duplicate &amp; kept the one with REGION as "North America"</t>
+  </si>
+  <si>
+    <t>Only one country associated with the Region "North America". Other North American Countries have Regions as "NA"</t>
+  </si>
+  <si>
+    <t>Renamed "North America" to "NA"</t>
+  </si>
+  <si>
+    <t>Name of new column if resolved</t>
+  </si>
+  <si>
+    <t>PURCHASE_TS_CLEANED</t>
+  </si>
+  <si>
+    <t>PRODUCT_NAME_CLEANED</t>
+  </si>
+  <si>
+    <t>COUNTRY_CODE_CLEANED</t>
+  </si>
+  <si>
+    <t>REGION_CLEANED</t>
+  </si>
+  <si>
+    <t>VARIABLES CREATED USING CALCULATED FIELDS</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t>Formula Used</t>
+  </si>
+  <si>
+    <t>REFUND_BINARY</t>
+  </si>
+  <si>
+    <t>DAYS(SHIP_TS,PURCHASE_TS_CLEANED)</t>
+  </si>
+  <si>
+    <t>DAYS(DELIVERY_TS,PURCHASE_TS_CLEANED)</t>
+  </si>
+  <si>
+    <t>DAYS(REFUND_TS,PURCHASE_TS_CLEANED)</t>
+  </si>
+  <si>
+    <t>IF(REFUND_TS="", 0,1)</t>
+  </si>
+  <si>
+    <t>ISSUES ENCOUNTERED WITH THE DATABASE</t>
+  </si>
+  <si>
+    <t>Variable Description</t>
+  </si>
+  <si>
+    <t>Number of days taken to ship a product</t>
+  </si>
+  <si>
+    <t>Number of days taken to deliver a product</t>
+  </si>
+  <si>
+    <t>Number of days taken to refund a product</t>
+  </si>
+  <si>
+    <t>0 - Product not-refunded; 1 - Product refunded</t>
+  </si>
+  <si>
+    <t>Product name with lowercase b in "bose soundsport headphones"</t>
+  </si>
+  <si>
+    <t>DAYS_TO_SHIP</t>
+  </si>
+  <si>
+    <t>DAYS_TO_DELIVER</t>
+  </si>
+  <si>
+    <t>DAYS_TO_REFUND</t>
+  </si>
+  <si>
+    <t>DAYS_IN_TRANSIT</t>
+  </si>
+  <si>
+    <t>Number of days taken from ship date to delivery date</t>
+  </si>
+  <si>
+    <t>DAYS(DELIVERY_TS,SHIP_TS)</t>
+  </si>
+  <si>
+    <t>ACC_TO_PURCHASE_DAYS</t>
+  </si>
+  <si>
+    <t>Numbre of days between account creation and first purchase</t>
+  </si>
+  <si>
+    <t>DAYS(CREATED_ON,PURCHASE_TS_CLEANED)</t>
+  </si>
+  <si>
+    <t>PURCHASE_MONTH</t>
+  </si>
+  <si>
+    <t>DATE(YEAR(PURCHASE_TS_CLEANED),MONTH(PURCHASE_TS_CLEANED), 1)</t>
+  </si>
+  <si>
+    <t>First day of every month</t>
+  </si>
+  <si>
+    <t>Used "DATE(YEAR(), MONTH(), DAY())" function &amp; "Text to Columns" function</t>
+  </si>
+  <si>
+    <t>Missing COUNTRY_CODE "EU" &amp; corresponding REGION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +298,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -220,6 +339,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,300 +695,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF2E0FB-A88E-4791-A7EC-6143DBA4F141}">
-  <dimension ref="B3:H14"/>
+  <dimension ref="A2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="3"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="81" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="41.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="4" width="82.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="7" max="7" width="74.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F8" t="s">
         <v>7</v>
       </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F9" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
-      <c r="H11" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F16" t="s">
         <v>7</v>
       </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
         <v>6</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F18" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="H18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F20" t="s">
         <v>7</v>
       </c>
-      <c r="H14" t="s">
-        <v>38</v>
-      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H5:I7"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:I9"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E30:G30"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>